--- a/va_facility_data_2025-02-20/Elko VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Elko%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Elko VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Elko%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3de07034888c4014bab5331ff31566cc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf20c69938caa435695fe8008a4c3eac5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R07a0e357841240dfa6a1e61354b867be"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra791bf1655424ea7b883b39430a234b2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3db063bb7c984970a8e187c163606884"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R93b9e7c956b24a50bee72a9c8e58f4c9"/>
   </x:sheets>
 </x:workbook>
 </file>
